--- a/数据整理/stocks/港股/09992-泡泡玛特.xlsx
+++ b/数据整理/stocks/港股/09992-泡泡玛特.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1467,4 +1468,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/09992-泡泡玛特.xlsx
+++ b/数据整理/stocks/港股/09992-泡泡玛特.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1476,7 +1477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1487,17 +1488,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1507,14 +1528,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.32</v>
+          <t>010340</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达高质量严选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>134.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.0898</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1523,13 +1566,613 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>009265</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达消费精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>68.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3927</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>65.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4515</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5813</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5802</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012588</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>42.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>56.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5764</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5549</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2594</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161132</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达科顺定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>56.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>8</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>2.25</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/09992-泡泡玛特.xlsx
+++ b/数据整理/stocks/港股/09992-泡泡玛特.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2103,7 +2104,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2114,17 +2115,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2134,14 +2155,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.84</v>
+          <t>010340</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达高质量严选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>113.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8128</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2150,14 +2193,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.32</v>
+          <t>501054</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>109.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6406</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2166,13 +2231,629 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>009576</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红智远三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>66.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3644</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>48.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2107</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>46.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6725</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4393</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010852</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1998</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1978</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012447</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1378</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161132</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达科顺定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012448</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010853</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011032</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>2.25</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/09992-泡泡玛特.xlsx
+++ b/数据整理/stocks/港股/09992-泡泡玛特.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2768,7 +2769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2779,17 +2780,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2799,14 +2820,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16</v>
+          <t>501054</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>120.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2203</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2815,14 +2858,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.84</v>
+          <t>009576</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红智远三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>74.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7470</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2831,14 +2896,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.32</v>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>51.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5688</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2847,13 +2934,797 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>52.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9459</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5222</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013392</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2671</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011153</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2469</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161132</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达科顺定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012426</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011032</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006720</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002598</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006721</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011154</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002599</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003279</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>融通沪港深智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012427</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014052</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.84</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.25</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/09992-泡泡玛特.xlsx
+++ b/数据整理/stocks/港股/09992-泡泡玛特.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,361 +455,971 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501077</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>27.04</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.89</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8977</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.78</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007345</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国科技创新灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>19.53</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>79.76</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7558</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009843</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中金泰顺12个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>11.66</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>71.66</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4746</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.84</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161620</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>融通核心价值混合（QDII）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>75.84</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0672</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006675</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>宝盈品牌消费股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>95.36</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.22</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0303</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002598</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>平安消费精选混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>86.40</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0118</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006676</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>宝盈品牌消费股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>95.36</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.22</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0116</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002599</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>平安消费精选混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>86.40</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
+      <c r="D6" t="n">
+        <v>2.25</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501054</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>120.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2203</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009576</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红智远三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>74.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7470</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>51.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5688</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>52.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9459</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5222</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013392</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2671</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011153</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2469</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161132</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达科顺定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012426</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011032</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006720</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002598</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006721</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011154</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002599</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003279</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>融通沪港深智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012427</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014052</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -836,7 +1446,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -866,36 +1476,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009265</t>
+          <t>010340</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达消费精选股票</t>
+          <t>易方达高质量严选三年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>71.23</t>
+          <t>113.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.61</t>
+          <t>91.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.1911</t>
+          <t>4.8128</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -904,32 +1514,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>169104</t>
+          <t>501054</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+          <t>东方红睿泽三年定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>70.30</t>
+          <t>109.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.38</t>
+          <t>95.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.3621</t>
+          <t>3.6406</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -942,36 +1552,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011911</t>
+          <t>009576</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏消费优选混合型证券投资基金A</t>
+          <t>东方红智远三年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.40</t>
+          <t>66.98</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.81</t>
+          <t>92.53</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3910</t>
+          <t>2.3644</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -980,36 +1590,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007291</t>
+          <t>169104</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇丰晋信港股通双核策略混合</t>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.86</t>
+          <t>48.91</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.99</t>
+          <t>92.40</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3451</t>
+          <t>2.2107</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1018,32 +1628,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002332</t>
+          <t>118001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇丰晋信沪港深股票A</t>
+          <t>易方达亚洲精选股票(QDII)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.84</t>
+          <t>46.85</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.16</t>
+          <t>93.54</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3287</t>
+          <t>1.6725</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1056,36 +1666,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>012588</t>
+          <t>006595</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方港股通优势企业混合型证券投资基金A</t>
+          <t>广发港股通优质增长混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>41.43</t>
+          <t>8.53</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>26.65</t>
+          <t>86.63</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3273</t>
+          <t>0.4393</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1094,36 +1704,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011157</t>
+          <t>010852</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>弘毅远方港股通智选领航混合A</t>
+          <t>中欧内需成长混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>91.46</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1757</t>
+          <t>0.1998</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1132,36 +1742,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011158</t>
+          <t>005620</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>弘毅远方港股通智选领航混合C</t>
+          <t>中欧品质消费股票A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>90.47</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0364</t>
+          <t>0.1978</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1170,36 +1780,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010951</t>
+          <t>012447</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中金成长精选混合A</t>
+          <t>华夏互联网龙头混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>86.26</t>
+          <t>83.95</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0271</t>
+          <t>0.1378</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1208,36 +1818,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>012589</t>
+          <t>161132</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>南方港股通优势企业混合型证券投资基金C</t>
+          <t>易方达科顺定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>26.65</t>
+          <t>93.53</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>5.58</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0266</t>
+          <t>0.0642</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1246,36 +1856,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006644</t>
+          <t>007109</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>弘毅远方消费升级混合</t>
+          <t>南方沪港深核心优势混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>83.38</t>
+          <t>87.54</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0259</t>
+          <t>0.0637</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1284,36 +1894,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002333</t>
+          <t>005621</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>汇丰晋信沪港深股票C</t>
+          <t>中欧品质消费股票C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>92.16</t>
+          <t>90.47</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0247</t>
+          <t>0.0587</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1322,36 +1932,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>011912</t>
+          <t>012448</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华夏消费优选混合型证券投资基金C</t>
+          <t>华夏互联网龙头混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>89.81</t>
+          <t>83.95</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0222</t>
+          <t>0.0531</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1360,36 +1970,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006675</t>
+          <t>009017</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>宝盈品牌消费股票A</t>
+          <t>银华港股通精选股票</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>83.56</t>
+          <t>86.12</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0208</t>
+          <t>0.0424</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1398,32 +2008,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>006676</t>
+          <t>010853</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>宝盈品牌消费股票C</t>
+          <t>中欧内需成长混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>83.56</t>
+          <t>91.46</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0098</t>
+          <t>0.0256</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1436,36 +2046,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010952</t>
+          <t>011032</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中金成长精选混合C</t>
+          <t>东方红睿泽三年定期开放灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>86.26</t>
+          <t>95.90</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0006</t>
+          <t>0.0117</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1473,7 +2083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2099,7 +2709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2126,7 +2736,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2156,36 +2766,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010340</t>
+          <t>009265</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达高质量严选三年持有期混合</t>
+          <t>易方达消费精选股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>113.51</t>
+          <t>71.23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.97</t>
+          <t>86.61</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.8128</t>
+          <t>3.1911</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2194,32 +2804,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501054</t>
+          <t>169104</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方红睿泽三年定期开放灵活配置混合A</t>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>109.00</t>
+          <t>70.30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.90</t>
+          <t>93.38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.6406</t>
+          <t>2.3621</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2232,36 +2842,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009576</t>
+          <t>011911</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东方红智远三年持有期混合</t>
+          <t>华夏消费优选混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>66.98</t>
+          <t>10.40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.53</t>
+          <t>89.81</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.3644</t>
+          <t>0.3910</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2270,36 +2880,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>169104</t>
+          <t>007291</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+          <t>汇丰晋信港股通双核策略混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>48.91</t>
+          <t>7.86</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.40</t>
+          <t>92.99</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.2107</t>
+          <t>0.3451</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2308,32 +2918,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>118001</t>
+          <t>002332</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达亚洲精选股票(QDII)</t>
+          <t>汇丰晋信沪港深股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>46.85</t>
+          <t>9.84</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.54</t>
+          <t>92.16</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.6725</t>
+          <t>0.3287</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2346,36 +2956,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006595</t>
+          <t>012588</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发港股通优质增长混合</t>
+          <t>南方港股通优势企业混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.53</t>
+          <t>41.43</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86.63</t>
+          <t>26.65</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4393</t>
+          <t>0.3273</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -2384,36 +2994,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010852</t>
+          <t>011157</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧内需成长混合型证券投资基金A</t>
+          <t>弘毅远方港股通智选领航混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.46</t>
+          <t>94.42</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1998</t>
+          <t>0.1757</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -2422,36 +3032,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005620</t>
+          <t>011158</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧品质消费股票A</t>
+          <t>弘毅远方港股通智选领航混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>90.47</t>
+          <t>94.42</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1978</t>
+          <t>0.0364</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -2460,36 +3070,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>012447</t>
+          <t>010951</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华夏互联网龙头混合型证券投资基金A</t>
+          <t>中金成长精选混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>83.95</t>
+          <t>86.26</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1378</t>
+          <t>0.0271</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -2498,36 +3108,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>161132</t>
+          <t>012589</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>易方达科顺定期开放灵活配置混合</t>
+          <t>南方港股通优势企业混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.53</t>
+          <t>26.65</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0642</t>
+          <t>0.0266</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -2536,36 +3146,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007109</t>
+          <t>006644</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>南方沪港深核心优势混合</t>
+          <t>弘毅远方消费升级混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>87.54</t>
+          <t>83.38</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0637</t>
+          <t>0.0259</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -2574,36 +3184,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005621</t>
+          <t>002333</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中欧品质消费股票C</t>
+          <t>汇丰晋信沪港深股票C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>90.47</t>
+          <t>92.16</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0587</t>
+          <t>0.0247</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -2612,36 +3222,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>012448</t>
+          <t>011912</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华夏互联网龙头混合型证券投资基金C</t>
+          <t>华夏消费优选混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>83.95</t>
+          <t>89.81</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0531</t>
+          <t>0.0222</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -2650,36 +3260,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009017</t>
+          <t>006675</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>银华港股通精选股票</t>
+          <t>宝盈品牌消费股票A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>86.12</t>
+          <t>83.56</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0424</t>
+          <t>0.0208</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -2688,32 +3298,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010853</t>
+          <t>006676</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中欧内需成长混合型证券投资基金C</t>
+          <t>宝盈品牌消费股票C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>91.46</t>
+          <t>83.56</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0256</t>
+          <t>0.0098</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -2726,889 +3336,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>011032</t>
+          <t>010952</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>东方红睿泽三年定期开放灵活配置混合C</t>
+          <t>中金成长精选混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>95.90</t>
+          <t>86.26</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0117</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>501054</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方红睿泽三年定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>120.58</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.17</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.2203</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009576</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东方红智远三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>74.85</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.54</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.7470</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>169104</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>51.07</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.81</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.5688</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>118001</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达亚洲精选股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>52.45</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.9459</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006595</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发港股通优质增长混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>9.13</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.76</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5222</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>013392</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发港股通优质增长混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.76</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2671</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011153</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华宝新兴消费混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7.55</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.99</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2469</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>161132</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>易方达科顺定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.25</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0750</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009017</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>银华港股通精选股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>88.36</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0484</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>012426</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>南方价值臻选混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>72.67</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0367</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004266</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.34</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0360</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>011032</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>东方红睿泽三年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.17</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0136</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006720</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>平安核心优势混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>89.13</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0113</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002598</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>平安消费精选混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.15</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0101</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>006721</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>平安核心优势混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>89.13</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0080</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>010754</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>91.34</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0079</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>011154</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华宝新兴消费混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>89.99</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0049</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002599</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>平安消费精选混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>92.15</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0046</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>003279</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>融通沪港深智慧生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>90.43</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>012427</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>南方价值臻选混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>72.67</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>014052</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>银华港股通精选股票C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>88.36</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3623,112 +3379,356 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.78</v>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8977</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16</v>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7558</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.84</v>
+          <t>009843</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中金泰顺12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4746</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.32</v>
+          <t>161620</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>006675</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
-        <v>2.25</v>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002598</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006676</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002599</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/09992-泡泡玛特.xlsx
+++ b/数据整理/stocks/港股/09992-泡泡玛特.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>12.78</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>16</v>
+        <v>12.78</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>14.84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>7.32</v>
+        <v>14.84</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.25</v>
       </c>
     </row>
@@ -566,6 +583,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501054</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>100.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1036</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009576</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红智远三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>62.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8906</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6281</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011032</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1419,7 +1644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2083,7 +2308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2709,7 +2934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3373,7 +3598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/09992-泡泡玛特.xlsx
+++ b/数据整理/stocks/港股/09992-泡泡玛特.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>6.63</v>
+        <v>11.83</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>12.78</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>12.78</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>14.84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>7.32</v>
+        <v>14.84</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.25</v>
       </c>
     </row>
@@ -583,6 +600,706 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501054</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>106.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3965</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009576</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红智远三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>66.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6858</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2881</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010377</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发价值核心混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9910</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8378</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011153</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3085</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010378</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发价值核心混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1779</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014307</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005493</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011032</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013897</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>德邦港股通成长精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013898</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>德邦港股通成长精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011154</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014308</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005494</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -790,7 +1507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1644,7 +2361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2308,7 +3025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2934,7 +3651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3598,7 +4315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
